--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Rln1-Rxfp2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Rln1-Rxfp2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,7 +531,7 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -540,51 +540,51 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.9530736666666667</v>
+        <v>1.129676333333334</v>
       </c>
       <c r="H2">
-        <v>2.859221</v>
+        <v>3.389029</v>
       </c>
       <c r="I2">
-        <v>0.1807309093159361</v>
+        <v>0.2150318133641351</v>
       </c>
       <c r="J2">
-        <v>0.1826665348894544</v>
+        <v>0.2164143620767121</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.0002143333333333333</v>
+        <v>0.026469</v>
       </c>
       <c r="N2">
-        <v>0.000643</v>
+        <v>0.052938</v>
       </c>
       <c r="O2">
-        <v>0.02184214548974982</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.03240927419354839</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.0002042754558888889</v>
+        <v>0.029901402867</v>
       </c>
       <c r="R2">
-        <v>0.001838479103</v>
+        <v>0.179408417202</v>
       </c>
       <c r="S2">
-        <v>0.003947550815773458</v>
+        <v>0.2150318133641351</v>
       </c>
       <c r="T2">
-        <v>0.005920089815217701</v>
+        <v>0.2164143620767121</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.9530736666666667</v>
+        <v>3.874459333333334</v>
       </c>
       <c r="H3">
-        <v>2.859221</v>
+        <v>11.623378</v>
       </c>
       <c r="I3">
-        <v>0.1807309093159361</v>
+        <v>0.7374962116750235</v>
       </c>
       <c r="J3">
-        <v>0.1826665348894544</v>
+        <v>0.7422379492906344</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,33 +620,33 @@
         <v>0.5</v>
       </c>
       <c r="M3">
-        <v>0.009598499999999999</v>
+        <v>0.026469</v>
       </c>
       <c r="N3">
-        <v>0.019197</v>
+        <v>0.052938</v>
       </c>
       <c r="O3">
-        <v>0.9781578545102502</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.9675907258064516</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.0091480775895</v>
+        <v>0.102553064094</v>
       </c>
       <c r="R3">
-        <v>0.054888465537</v>
+        <v>0.615318384564</v>
       </c>
       <c r="S3">
-        <v>0.1767833585001627</v>
+        <v>0.7374962116750235</v>
       </c>
       <c r="T3">
-        <v>0.1767464450742367</v>
+        <v>0.7422379492906344</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,51 +664,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.874459333333334</v>
+        <v>0.1076963333333333</v>
       </c>
       <c r="H4">
-        <v>11.623378</v>
+        <v>0.323089</v>
       </c>
       <c r="I4">
-        <v>0.734711893646153</v>
+        <v>0.02049979907165298</v>
       </c>
       <c r="J4">
-        <v>0.7425806480052842</v>
+        <v>0.0206316026888536</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M4">
-        <v>0.0002143333333333333</v>
+        <v>0.026469</v>
       </c>
       <c r="N4">
-        <v>0.000643</v>
+        <v>0.052938</v>
       </c>
       <c r="O4">
-        <v>0.02184214548974982</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.03240927419354839</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.0008304257837777778</v>
+        <v>0.002850614247</v>
       </c>
       <c r="R4">
-        <v>0.007473832054</v>
+        <v>0.017103685482</v>
       </c>
       <c r="S4">
-        <v>0.01604768407406887</v>
+        <v>0.02049979907165298</v>
       </c>
       <c r="T4">
-        <v>0.0240664998320261</v>
+        <v>0.0206316026888536</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -720,22 +720,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.874459333333334</v>
+        <v>0.1006855</v>
       </c>
       <c r="H5">
-        <v>11.623378</v>
+        <v>0.201371</v>
       </c>
       <c r="I5">
-        <v>0.734711893646153</v>
+        <v>0.01916529983467945</v>
       </c>
       <c r="J5">
-        <v>0.7425806480052842</v>
+        <v>0.01285901551912054</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -744,33 +744,33 @@
         <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.009598499999999999</v>
+        <v>0.026469</v>
       </c>
       <c r="N5">
-        <v>0.019197</v>
+        <v>0.052938</v>
       </c>
       <c r="O5">
-        <v>0.9781578545102502</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>0.9675907258064516</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.037188997911</v>
+        <v>0.0026650444995</v>
       </c>
       <c r="R5">
-        <v>0.223133987466</v>
+        <v>0.010660177998</v>
       </c>
       <c r="S5">
-        <v>0.7186642095720841</v>
+        <v>0.01916529983467945</v>
       </c>
       <c r="T5">
-        <v>0.7185141481732581</v>
+        <v>0.01285901551912054</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,365 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.076251</v>
+        <v>0.04101366666666667</v>
       </c>
       <c r="H6">
-        <v>0.228753</v>
+        <v>0.123041</v>
       </c>
       <c r="I6">
-        <v>0.01445944112006324</v>
+        <v>0.007806876054508988</v>
       </c>
       <c r="J6">
-        <v>0.01461430153722548</v>
+        <v>0.007857070424679379</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M6">
-        <v>0.0002143333333333333</v>
+        <v>0.026469</v>
       </c>
       <c r="N6">
-        <v>0.000643</v>
+        <v>0.052938</v>
       </c>
       <c r="O6">
-        <v>0.02184214548974982</v>
+        <v>1</v>
       </c>
       <c r="P6">
-        <v>0.03240927419354839</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>1.6343131E-05</v>
+        <v>0.001085590743</v>
       </c>
       <c r="R6">
-        <v>0.000147088179</v>
+        <v>0.006513544458</v>
       </c>
       <c r="S6">
-        <v>0.0003158252166448923</v>
+        <v>0.007806876054508988</v>
       </c>
       <c r="T6">
-        <v>0.0004736389056671361</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.076251</v>
-      </c>
-      <c r="H7">
-        <v>0.228753</v>
-      </c>
-      <c r="I7">
-        <v>0.01445944112006324</v>
-      </c>
-      <c r="J7">
-        <v>0.01461430153722548</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0.5</v>
-      </c>
-      <c r="M7">
-        <v>0.009598499999999999</v>
-      </c>
-      <c r="N7">
-        <v>0.019197</v>
-      </c>
-      <c r="O7">
-        <v>0.9781578545102502</v>
-      </c>
-      <c r="P7">
-        <v>0.9675907258064516</v>
-      </c>
-      <c r="Q7">
-        <v>0.0007318952235</v>
-      </c>
-      <c r="R7">
-        <v>0.004391371341</v>
-      </c>
-      <c r="S7">
-        <v>0.01414361590341835</v>
-      </c>
-      <c r="T7">
-        <v>0.01414066263155834</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0.16764</v>
-      </c>
-      <c r="H8">
-        <v>0.33528</v>
-      </c>
-      <c r="I8">
-        <v>0.03178949403112617</v>
-      </c>
-      <c r="J8">
-        <v>0.0214199727190505</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>0.0002143333333333333</v>
-      </c>
-      <c r="N8">
-        <v>0.000643</v>
-      </c>
-      <c r="O8">
-        <v>0.02184214548974982</v>
-      </c>
-      <c r="P8">
-        <v>0.03240927419354839</v>
-      </c>
-      <c r="Q8">
-        <v>3.593084E-05</v>
-      </c>
-      <c r="R8">
-        <v>0.00021558504</v>
-      </c>
-      <c r="S8">
-        <v>0.0006943507536733913</v>
-      </c>
-      <c r="T8">
-        <v>0.0006942057690700337</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.16764</v>
-      </c>
-      <c r="H9">
-        <v>0.33528</v>
-      </c>
-      <c r="I9">
-        <v>0.03178949403112617</v>
-      </c>
-      <c r="J9">
-        <v>0.0214199727190505</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.5</v>
-      </c>
-      <c r="M9">
-        <v>0.009598499999999999</v>
-      </c>
-      <c r="N9">
-        <v>0.019197</v>
-      </c>
-      <c r="O9">
-        <v>0.9781578545102502</v>
-      </c>
-      <c r="P9">
-        <v>0.9675907258064516</v>
-      </c>
-      <c r="Q9">
-        <v>0.00160909254</v>
-      </c>
-      <c r="R9">
-        <v>0.00643637016</v>
-      </c>
-      <c r="S9">
-        <v>0.03109514327745278</v>
-      </c>
-      <c r="T9">
-        <v>0.02072576694998046</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.2020163333333334</v>
-      </c>
-      <c r="H10">
-        <v>0.6060490000000001</v>
-      </c>
-      <c r="I10">
-        <v>0.03830826188672152</v>
-      </c>
-      <c r="J10">
-        <v>0.03871854284898543</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M10">
-        <v>0.0002143333333333333</v>
-      </c>
-      <c r="N10">
-        <v>0.000643</v>
-      </c>
-      <c r="O10">
-        <v>0.02184214548974982</v>
-      </c>
-      <c r="P10">
-        <v>0.03240927419354839</v>
-      </c>
-      <c r="Q10">
-        <v>4.329883411111111E-05</v>
-      </c>
-      <c r="R10">
-        <v>0.0003896895070000001</v>
-      </c>
-      <c r="S10">
-        <v>0.0008367346295892092</v>
-      </c>
-      <c r="T10">
-        <v>0.001254839871567421</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0.2020163333333334</v>
-      </c>
-      <c r="H11">
-        <v>0.6060490000000001</v>
-      </c>
-      <c r="I11">
-        <v>0.03830826188672152</v>
-      </c>
-      <c r="J11">
-        <v>0.03871854284898543</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>0.5</v>
-      </c>
-      <c r="M11">
-        <v>0.009598499999999999</v>
-      </c>
-      <c r="N11">
-        <v>0.019197</v>
-      </c>
-      <c r="O11">
-        <v>0.9781578545102502</v>
-      </c>
-      <c r="P11">
-        <v>0.9675907258064516</v>
-      </c>
-      <c r="Q11">
-        <v>0.0019390537755</v>
-      </c>
-      <c r="R11">
-        <v>0.011634322653</v>
-      </c>
-      <c r="S11">
-        <v>0.03747152725713231</v>
-      </c>
-      <c r="T11">
-        <v>0.037463702977418</v>
+        <v>0.007857070424679379</v>
       </c>
     </row>
   </sheetData>
